--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vegfa-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vegfa-Nrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.24959</v>
+        <v>6.3049255</v>
       </c>
       <c r="H2">
-        <v>4.49918</v>
+        <v>12.609851</v>
       </c>
       <c r="I2">
-        <v>0.0392017419201376</v>
+        <v>0.03649377841784593</v>
       </c>
       <c r="J2">
-        <v>0.02815879978891071</v>
+        <v>0.02546366648574191</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N2">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O2">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P2">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q2">
-        <v>242.19780163474</v>
+        <v>658.7433764587523</v>
       </c>
       <c r="R2">
-        <v>968.79120653896</v>
+        <v>2634.973505835009</v>
       </c>
       <c r="S2">
-        <v>0.01078762757405224</v>
+        <v>0.01152820792435314</v>
       </c>
       <c r="T2">
-        <v>0.005792635930779899</v>
+        <v>0.006187958264361603</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.24959</v>
+        <v>6.3049255</v>
       </c>
       <c r="H3">
-        <v>4.49918</v>
+        <v>12.609851</v>
       </c>
       <c r="I3">
-        <v>0.0392017419201376</v>
+        <v>0.03649377841784593</v>
       </c>
       <c r="J3">
-        <v>0.02815879978891071</v>
+        <v>0.02546366648574191</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O3">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P3">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q3">
-        <v>61.66514769179334</v>
+        <v>172.8288986629803</v>
       </c>
       <c r="R3">
-        <v>369.99088615076</v>
+        <v>1036.973391977882</v>
       </c>
       <c r="S3">
-        <v>0.002746600683854336</v>
+        <v>0.003024557893598116</v>
       </c>
       <c r="T3">
-        <v>0.002212264610487872</v>
+        <v>0.002435222994312113</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.24959</v>
+        <v>6.3049255</v>
       </c>
       <c r="H4">
-        <v>4.49918</v>
+        <v>12.609851</v>
       </c>
       <c r="I4">
-        <v>0.0392017419201376</v>
+        <v>0.03649377841784593</v>
       </c>
       <c r="J4">
-        <v>0.02815879978891071</v>
+        <v>0.02546366648574191</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N4">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O4">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P4">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q4">
-        <v>185.15009113993</v>
+        <v>354.7773424479686</v>
       </c>
       <c r="R4">
-        <v>1110.90054683958</v>
+        <v>2128.664054687812</v>
       </c>
       <c r="S4">
-        <v>0.008246690164147651</v>
+        <v>0.006208710579491819</v>
       </c>
       <c r="T4">
-        <v>0.006642341899587839</v>
+        <v>0.00499894374652574</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.24959</v>
+        <v>6.3049255</v>
       </c>
       <c r="H5">
-        <v>4.49918</v>
+        <v>12.609851</v>
       </c>
       <c r="I5">
-        <v>0.0392017419201376</v>
+        <v>0.03649377841784593</v>
       </c>
       <c r="J5">
-        <v>0.02815879978891071</v>
+        <v>0.02546366648574191</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N5">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O5">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P5">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q5">
-        <v>43.495542576045</v>
+        <v>175.720568677882</v>
       </c>
       <c r="R5">
-        <v>173.98217030418</v>
+        <v>702.882274711528</v>
       </c>
       <c r="S5">
-        <v>0.001937316157598038</v>
+        <v>0.003075162991685946</v>
       </c>
       <c r="T5">
-        <v>0.001040281295099195</v>
+        <v>0.001650645128325941</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.24959</v>
+        <v>6.3049255</v>
       </c>
       <c r="H6">
-        <v>4.49918</v>
+        <v>12.609851</v>
       </c>
       <c r="I6">
-        <v>0.0392017419201376</v>
+        <v>0.03649377841784593</v>
       </c>
       <c r="J6">
-        <v>0.02815879978891071</v>
+        <v>0.02546366648574191</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N6">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O6">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P6">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q6">
-        <v>187.2933332724067</v>
+        <v>120.9056871908848</v>
       </c>
       <c r="R6">
-        <v>1123.75999963444</v>
+        <v>725.4341231453091</v>
       </c>
       <c r="S6">
-        <v>0.008342151385389634</v>
+        <v>0.0021158860202378</v>
       </c>
       <c r="T6">
-        <v>0.006719231664696043</v>
+        <v>0.001703605773502607</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.24959</v>
+        <v>6.3049255</v>
       </c>
       <c r="H7">
-        <v>4.49918</v>
+        <v>12.609851</v>
       </c>
       <c r="I7">
-        <v>0.0392017419201376</v>
+        <v>0.03649377841784593</v>
       </c>
       <c r="J7">
-        <v>0.02815879978891071</v>
+        <v>0.02546366648574191</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N7">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O7">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P7">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q7">
-        <v>160.33374355411</v>
+        <v>602.3469254264986</v>
       </c>
       <c r="R7">
-        <v>962.00246132466</v>
+        <v>3614.081552558992</v>
       </c>
       <c r="S7">
-        <v>0.007141355955095701</v>
+        <v>0.01054125300847911</v>
       </c>
       <c r="T7">
-        <v>0.005752044388259861</v>
+        <v>0.008487290578713906</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>54.548013</v>
       </c>
       <c r="I8">
-        <v>0.3168543494417961</v>
+        <v>0.1052438076419132</v>
       </c>
       <c r="J8">
-        <v>0.3413970049986661</v>
+        <v>0.110151373754687</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N8">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O8">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P8">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q8">
-        <v>1957.602471582706</v>
+        <v>1899.739193996605</v>
       </c>
       <c r="R8">
-        <v>11745.61482949623</v>
+        <v>11398.43516397963</v>
       </c>
       <c r="S8">
-        <v>0.08719272536307504</v>
+        <v>0.03324600931574941</v>
       </c>
       <c r="T8">
-        <v>0.07022985967586294</v>
+        <v>0.02676802666802757</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>54.548013</v>
       </c>
       <c r="I9">
-        <v>0.3168543494417961</v>
+        <v>0.1052438076419132</v>
       </c>
       <c r="J9">
-        <v>0.3413970049986661</v>
+        <v>0.110151373754687</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O9">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P9">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q9">
         <v>498.4184196437074</v>
@@ -1013,10 +1013,10 @@
         <v>4485.765776793366</v>
       </c>
       <c r="S9">
-        <v>0.02219983934979192</v>
+        <v>0.008722472787306932</v>
       </c>
       <c r="T9">
-        <v>0.02682147385353162</v>
+        <v>0.0105343493393884</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>54.548013</v>
       </c>
       <c r="I10">
-        <v>0.3168543494417961</v>
+        <v>0.1052438076419132</v>
       </c>
       <c r="J10">
-        <v>0.3413970049986661</v>
+        <v>0.110151373754687</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N10">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O10">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P10">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q10">
-        <v>1496.505226649017</v>
+        <v>1023.136545544551</v>
       </c>
       <c r="R10">
-        <v>13468.54703984115</v>
+        <v>9208.228909900956</v>
       </c>
       <c r="S10">
-        <v>0.06665519232110417</v>
+        <v>0.01790519837246596</v>
       </c>
       <c r="T10">
-        <v>0.08053168628264752</v>
+        <v>0.02162455753614811</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>54.548013</v>
       </c>
       <c r="I11">
-        <v>0.3168543494417961</v>
+        <v>0.1052438076419132</v>
       </c>
       <c r="J11">
-        <v>0.3413970049986661</v>
+        <v>0.110151373754687</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N11">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O11">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P11">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q11">
-        <v>351.5596800424605</v>
+        <v>506.757659262244</v>
       </c>
       <c r="R11">
-        <v>2109.358080254763</v>
+        <v>3040.545955573464</v>
       </c>
       <c r="S11">
-        <v>0.01565866772015757</v>
+        <v>0.008868411997762908</v>
       </c>
       <c r="T11">
-        <v>0.01261235994308467</v>
+        <v>0.007140402524844273</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>54.548013</v>
       </c>
       <c r="I12">
-        <v>0.3168543494417961</v>
+        <v>0.1052438076419132</v>
       </c>
       <c r="J12">
-        <v>0.3413970049986661</v>
+        <v>0.110151373754687</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N12">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O12">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P12">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q12">
-        <v>1513.828323999273</v>
+        <v>348.6779236678964</v>
       </c>
       <c r="R12">
-        <v>13624.45491599345</v>
+        <v>3138.101313011067</v>
       </c>
       <c r="S12">
-        <v>0.06742677291094551</v>
+        <v>0.006101968909780655</v>
       </c>
       <c r="T12">
-        <v>0.08146389702031288</v>
+        <v>0.007369501025816663</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>54.548013</v>
       </c>
       <c r="I13">
-        <v>0.3168543494417961</v>
+        <v>0.1052438076419132</v>
       </c>
       <c r="J13">
-        <v>0.3413970049986661</v>
+        <v>0.110151373754687</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N13">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O13">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P13">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q13">
-        <v>1295.923127877859</v>
+        <v>1737.098395990811</v>
       </c>
       <c r="R13">
-        <v>11663.30815090073</v>
+        <v>15633.8855639173</v>
       </c>
       <c r="S13">
-        <v>0.05772115177672194</v>
+        <v>0.03039974625884729</v>
       </c>
       <c r="T13">
-        <v>0.06973772822322645</v>
+        <v>0.03671453666046202</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.63643766666667</v>
+        <v>23.56402866666666</v>
       </c>
       <c r="H14">
-        <v>43.909313</v>
+        <v>70.69208599999999</v>
       </c>
       <c r="I14">
-        <v>0.2550570779736964</v>
+        <v>0.1363918480548426</v>
       </c>
       <c r="J14">
-        <v>0.2748130889707934</v>
+        <v>0.142751861309494</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N14">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O14">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P14">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q14">
-        <v>1575.804047239973</v>
+        <v>2461.987505934976</v>
       </c>
       <c r="R14">
-        <v>9454.824283439835</v>
+        <v>14771.92503560986</v>
       </c>
       <c r="S14">
-        <v>0.07018720680605361</v>
+        <v>0.04308552448474627</v>
       </c>
       <c r="T14">
-        <v>0.05653267132669973</v>
+        <v>0.03469031297742227</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.63643766666667</v>
+        <v>23.56402866666666</v>
       </c>
       <c r="H15">
-        <v>43.909313</v>
+        <v>70.69208599999999</v>
       </c>
       <c r="I15">
-        <v>0.2550570779736964</v>
+        <v>0.1363918480548426</v>
       </c>
       <c r="J15">
-        <v>0.2748130889707934</v>
+        <v>0.142751861309494</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O15">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P15">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q15">
-        <v>401.2100384499962</v>
+        <v>645.9307286855168</v>
       </c>
       <c r="R15">
-        <v>3610.890346049966</v>
+        <v>5813.376558169652</v>
       </c>
       <c r="S15">
-        <v>0.01787012286881522</v>
+        <v>0.0113039827209281</v>
       </c>
       <c r="T15">
-        <v>0.0215903829632811</v>
+        <v>0.01365210368806812</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.63643766666667</v>
+        <v>23.56402866666666</v>
       </c>
       <c r="H16">
-        <v>43.909313</v>
+        <v>70.69208599999999</v>
       </c>
       <c r="I16">
-        <v>0.2550570779736964</v>
+        <v>0.1363918480548426</v>
       </c>
       <c r="J16">
-        <v>0.2748130889707934</v>
+        <v>0.142751861309494</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N16">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O16">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P16">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q16">
-        <v>1204.636297257384</v>
+        <v>1325.944845458959</v>
       </c>
       <c r="R16">
-        <v>10841.72667531645</v>
+        <v>11933.50360913063</v>
       </c>
       <c r="S16">
-        <v>0.0536551845197837</v>
+        <v>0.02320443502118809</v>
       </c>
       <c r="T16">
-        <v>0.06482529472526481</v>
+        <v>0.02802457865985568</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.63643766666667</v>
+        <v>23.56402866666666</v>
       </c>
       <c r="H17">
-        <v>43.909313</v>
+        <v>70.69208599999999</v>
       </c>
       <c r="I17">
-        <v>0.2550570779736964</v>
+        <v>0.1363918480548426</v>
       </c>
       <c r="J17">
-        <v>0.2748130889707934</v>
+        <v>0.142751861309494</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N17">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O17">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P17">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q17">
-        <v>282.9937000485104</v>
+        <v>656.7380562464346</v>
       </c>
       <c r="R17">
-        <v>1697.962200291063</v>
+        <v>3940.428337478608</v>
       </c>
       <c r="S17">
-        <v>0.01260470004814649</v>
+        <v>0.011493114215348</v>
       </c>
       <c r="T17">
-        <v>0.01015252490332814</v>
+        <v>0.009253681694343447</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>14.63643766666667</v>
+        <v>23.56402866666666</v>
       </c>
       <c r="H18">
-        <v>43.909313</v>
+        <v>70.69208599999999</v>
       </c>
       <c r="I18">
-        <v>0.2550570779736964</v>
+        <v>0.1363918480548426</v>
       </c>
       <c r="J18">
-        <v>0.2748130889707934</v>
+        <v>0.142751861309494</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N18">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O18">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P18">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q18">
-        <v>1218.580807090984</v>
+        <v>451.8729172817415</v>
       </c>
       <c r="R18">
-        <v>10967.22726381885</v>
+        <v>4066.856255535674</v>
       </c>
       <c r="S18">
-        <v>0.05427628090369906</v>
+        <v>0.007907912446591598</v>
       </c>
       <c r="T18">
-        <v>0.06557569296730728</v>
+        <v>0.00955058436856572</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>14.63643766666667</v>
+        <v>23.56402866666666</v>
       </c>
       <c r="H19">
-        <v>43.909313</v>
+        <v>70.69208599999999</v>
       </c>
       <c r="I19">
-        <v>0.2550570779736964</v>
+        <v>0.1363918480548426</v>
       </c>
       <c r="J19">
-        <v>0.2748130889707934</v>
+        <v>0.142751861309494</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N19">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O19">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P19">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q19">
-        <v>1043.174464410426</v>
+        <v>2251.211408926012</v>
       </c>
       <c r="R19">
-        <v>9388.57017969383</v>
+        <v>20260.90268033411</v>
       </c>
       <c r="S19">
-        <v>0.0464635828271983</v>
+        <v>0.03939687916604057</v>
       </c>
       <c r="T19">
-        <v>0.05613652208491231</v>
+        <v>0.04758059992123882</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.126433</v>
+        <v>16.786919</v>
       </c>
       <c r="H20">
-        <v>20.252866</v>
+        <v>33.57383799999999</v>
       </c>
       <c r="I20">
-        <v>0.1764649616319261</v>
+        <v>0.09716500255305598</v>
       </c>
       <c r="J20">
-        <v>0.1267556307695262</v>
+        <v>0.06779723356591034</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N20">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O20">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P20">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q20">
-        <v>1090.243026952238</v>
+        <v>1753.909971243844</v>
       </c>
       <c r="R20">
-        <v>4360.972107808951</v>
+        <v>7015.639884975378</v>
       </c>
       <c r="S20">
-        <v>0.04856004332237987</v>
+        <v>0.03069395390021249</v>
       </c>
       <c r="T20">
-        <v>0.02607530245352943</v>
+        <v>0.01647549271743478</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.126433</v>
+        <v>16.786919</v>
       </c>
       <c r="H21">
-        <v>20.252866</v>
+        <v>33.57383799999999</v>
       </c>
       <c r="I21">
-        <v>0.1764649616319261</v>
+        <v>0.09716500255305598</v>
       </c>
       <c r="J21">
-        <v>0.1267556307695262</v>
+        <v>0.06779723356591034</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O21">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P21">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q21">
-        <v>277.5830202552687</v>
+        <v>460.1584463947526</v>
       </c>
       <c r="R21">
-        <v>1665.498121531612</v>
+        <v>2760.950678368516</v>
       </c>
       <c r="S21">
-        <v>0.01236370529865669</v>
+        <v>0.008052911706988795</v>
       </c>
       <c r="T21">
-        <v>0.00995841435833931</v>
+        <v>0.006483802410108558</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.126433</v>
+        <v>16.786919</v>
       </c>
       <c r="H22">
-        <v>20.252866</v>
+        <v>33.57383799999999</v>
       </c>
       <c r="I22">
-        <v>0.1764649616319261</v>
+        <v>0.09716500255305598</v>
       </c>
       <c r="J22">
-        <v>0.1267556307695262</v>
+        <v>0.06779723356591034</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N22">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O22">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P22">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q22">
-        <v>833.4452024023909</v>
+        <v>944.5977610218092</v>
       </c>
       <c r="R22">
-        <v>5000.671214414346</v>
+        <v>5667.586566130855</v>
       </c>
       <c r="S22">
-        <v>0.03712212243964464</v>
+        <v>0.0165307459370253</v>
       </c>
       <c r="T22">
-        <v>0.0299002174659689</v>
+        <v>0.01330973121862964</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.126433</v>
+        <v>16.786919</v>
       </c>
       <c r="H23">
-        <v>20.252866</v>
+        <v>33.57383799999999</v>
       </c>
       <c r="I23">
-        <v>0.1764649616319261</v>
+        <v>0.09716500255305598</v>
       </c>
       <c r="J23">
-        <v>0.1267556307695262</v>
+        <v>0.06779723356591034</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N23">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O23">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P23">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q23">
-        <v>195.7933213140915</v>
+        <v>467.857542968516</v>
       </c>
       <c r="R23">
-        <v>783.1732852563658</v>
+        <v>1871.430171874064</v>
       </c>
       <c r="S23">
-        <v>0.008720745677983085</v>
+        <v>0.008187648220939273</v>
       </c>
       <c r="T23">
-        <v>0.004682781678428167</v>
+        <v>0.004394857015670077</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.126433</v>
+        <v>16.786919</v>
       </c>
       <c r="H24">
-        <v>20.252866</v>
+        <v>33.57383799999999</v>
       </c>
       <c r="I24">
-        <v>0.1764649616319261</v>
+        <v>0.09716500255305598</v>
       </c>
       <c r="J24">
-        <v>0.1267556307695262</v>
+        <v>0.06779723356591034</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N24">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O24">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P24">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q24">
-        <v>843.0929150332712</v>
+        <v>321.9124440903737</v>
       </c>
       <c r="R24">
-        <v>5058.557490199627</v>
+        <v>1931.474664542242</v>
       </c>
       <c r="S24">
-        <v>0.03755183703697354</v>
+        <v>0.005633564938231911</v>
       </c>
       <c r="T24">
-        <v>0.03024633344921649</v>
+        <v>0.004535865194239108</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.126433</v>
+        <v>16.786919</v>
       </c>
       <c r="H25">
-        <v>20.252866</v>
+        <v>33.57383799999999</v>
       </c>
       <c r="I25">
-        <v>0.1764649616319261</v>
+        <v>0.09716500255305598</v>
       </c>
       <c r="J25">
-        <v>0.1267556307695262</v>
+        <v>0.06779723356591034</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N25">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O25">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P25">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q25">
-        <v>721.7354770157569</v>
+        <v>1603.753929690949</v>
       </c>
       <c r="R25">
-        <v>4330.412862094541</v>
+        <v>9622.523578145696</v>
       </c>
       <c r="S25">
-        <v>0.03214650785628831</v>
+        <v>0.02806617784965819</v>
       </c>
       <c r="T25">
-        <v>0.02589258136404388</v>
+        <v>0.02259748500982818</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.810577666666667</v>
+        <v>82.370743</v>
       </c>
       <c r="H26">
-        <v>5.431733</v>
+        <v>247.112229</v>
       </c>
       <c r="I26">
-        <v>0.03155143755752453</v>
+        <v>0.4767732216907772</v>
       </c>
       <c r="J26">
-        <v>0.03399532404878652</v>
+        <v>0.4990053715784811</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N26">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O26">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P26">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q26">
-        <v>194.9323790360127</v>
+        <v>8606.157418550965</v>
       </c>
       <c r="R26">
-        <v>1169.594274216076</v>
+        <v>51636.94451130579</v>
       </c>
       <c r="S26">
-        <v>0.008682398820183457</v>
+        <v>0.1506103525231909</v>
       </c>
       <c r="T26">
-        <v>0.006993285830351952</v>
+        <v>0.1212639356060089</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.810577666666667</v>
+        <v>82.370743</v>
       </c>
       <c r="H27">
-        <v>5.431733</v>
+        <v>247.112229</v>
       </c>
       <c r="I27">
-        <v>0.03155143755752453</v>
+        <v>0.4767732216907772</v>
       </c>
       <c r="J27">
-        <v>0.03399532404878652</v>
+        <v>0.4990053715784811</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O27">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P27">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q27">
-        <v>49.63106131448956</v>
+        <v>2257.924347360075</v>
       </c>
       <c r="R27">
-        <v>446.6795518304061</v>
+        <v>20321.31912624068</v>
       </c>
       <c r="S27">
-        <v>0.002210595645178924</v>
+        <v>0.03951435761488249</v>
       </c>
       <c r="T27">
-        <v>0.002670804610955579</v>
+        <v>0.04772248159288486</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.810577666666667</v>
+        <v>82.370743</v>
       </c>
       <c r="H28">
-        <v>5.431733</v>
+        <v>247.112229</v>
       </c>
       <c r="I28">
-        <v>0.03155143755752453</v>
+        <v>0.4767732216907772</v>
       </c>
       <c r="J28">
-        <v>0.03399532404878652</v>
+        <v>0.4990053715784811</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N28">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O28">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P28">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q28">
-        <v>149.0176521051637</v>
+        <v>4634.991055327239</v>
       </c>
       <c r="R28">
-        <v>1341.158868946473</v>
+        <v>41714.91949794516</v>
       </c>
       <c r="S28">
-        <v>0.006637330818115928</v>
+        <v>0.08111374250254057</v>
       </c>
       <c r="T28">
-        <v>0.008019111858888499</v>
+        <v>0.09796310296208788</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.810577666666667</v>
+        <v>82.370743</v>
       </c>
       <c r="H29">
-        <v>5.431733</v>
+        <v>247.112229</v>
       </c>
       <c r="I29">
-        <v>0.03155143755752453</v>
+        <v>0.4767732216907772</v>
       </c>
       <c r="J29">
-        <v>0.03399532404878652</v>
+        <v>0.4990053715784811</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N29">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O29">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P29">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q29">
-        <v>35.0072937680805</v>
+        <v>2295.702590360452</v>
       </c>
       <c r="R29">
-        <v>210.043762608483</v>
+        <v>13774.21554216271</v>
       </c>
       <c r="S29">
-        <v>0.00155924473713854</v>
+        <v>0.04017548827044416</v>
       </c>
       <c r="T29">
-        <v>0.001255902239935507</v>
+        <v>0.03234729712100597</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.810577666666667</v>
+        <v>82.370743</v>
       </c>
       <c r="H30">
-        <v>5.431733</v>
+        <v>247.112229</v>
       </c>
       <c r="I30">
-        <v>0.03155143755752453</v>
+        <v>0.4767732216907772</v>
       </c>
       <c r="J30">
-        <v>0.03399532404878652</v>
+        <v>0.4990053715784811</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N30">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O30">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P30">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q30">
-        <v>150.7426359196905</v>
+        <v>1579.573190331713</v>
       </c>
       <c r="R30">
-        <v>1356.683723277214</v>
+        <v>14216.15871298541</v>
       </c>
       <c r="S30">
-        <v>0.006714162576442316</v>
+        <v>0.02764300761211225</v>
       </c>
       <c r="T30">
-        <v>0.008111938701668845</v>
+        <v>0.03338515419631036</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.810577666666667</v>
+        <v>82.370743</v>
       </c>
       <c r="H31">
-        <v>5.431733</v>
+        <v>247.112229</v>
       </c>
       <c r="I31">
-        <v>0.03155143755752453</v>
+        <v>0.4767732216907772</v>
       </c>
       <c r="J31">
-        <v>0.03399532404878652</v>
+        <v>0.4990053715784811</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N31">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O31">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P31">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q31">
-        <v>129.0442681964857</v>
+        <v>7869.36559220982</v>
       </c>
       <c r="R31">
-        <v>1161.398413768371</v>
+        <v>70824.29032988838</v>
       </c>
       <c r="S31">
-        <v>0.005747704960465365</v>
+        <v>0.1377162731676068</v>
       </c>
       <c r="T31">
-        <v>0.006944280806986142</v>
+        <v>0.1663234001001831</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>10.37924066666667</v>
+        <v>25.55784666666667</v>
       </c>
       <c r="H32">
-        <v>31.137722</v>
+        <v>76.67354</v>
       </c>
       <c r="I32">
-        <v>0.1808704314749193</v>
+        <v>0.1479323416415651</v>
       </c>
       <c r="J32">
-        <v>0.1948801514233172</v>
+        <v>0.1548304933056855</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N32">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O32">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P32">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q32">
-        <v>1117.461080510031</v>
+        <v>2670.303115907566</v>
       </c>
       <c r="R32">
-        <v>6704.766483060184</v>
+        <v>16021.8186954454</v>
       </c>
       <c r="S32">
-        <v>0.04977235087880801</v>
+        <v>0.04673111053763745</v>
       </c>
       <c r="T32">
-        <v>0.04008941346197213</v>
+        <v>0.0376255568365447</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>10.37924066666667</v>
+        <v>25.55784666666667</v>
       </c>
       <c r="H33">
-        <v>31.137722</v>
+        <v>76.67354</v>
       </c>
       <c r="I33">
-        <v>0.1808704314749193</v>
+        <v>0.1479323416415651</v>
       </c>
       <c r="J33">
-        <v>0.1948801514233172</v>
+        <v>0.1548304933056855</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O33">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P33">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q33">
-        <v>284.5129150817116</v>
+        <v>700.5847240538089</v>
       </c>
       <c r="R33">
-        <v>2560.616235735405</v>
+        <v>6305.262516484281</v>
       </c>
       <c r="S33">
-        <v>0.01267236674814318</v>
+        <v>0.01226044413673674</v>
       </c>
       <c r="T33">
-        <v>0.01531054112789656</v>
+        <v>0.01480724614932481</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>10.37924066666667</v>
+        <v>25.55784666666667</v>
       </c>
       <c r="H34">
-        <v>31.137722</v>
+        <v>76.67354</v>
       </c>
       <c r="I34">
-        <v>0.1808704314749193</v>
+        <v>0.1479323416415651</v>
       </c>
       <c r="J34">
-        <v>0.1948801514233172</v>
+        <v>0.1548304933056855</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N34">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O34">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P34">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q34">
-        <v>854.2522661447648</v>
+        <v>1438.136726451831</v>
       </c>
       <c r="R34">
-        <v>7688.270395302883</v>
+        <v>12943.23053806648</v>
       </c>
       <c r="S34">
-        <v>0.03804888087034586</v>
+        <v>0.02516782680276922</v>
       </c>
       <c r="T34">
-        <v>0.04597002020330773</v>
+        <v>0.03039581620012729</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>10.37924066666667</v>
+        <v>25.55784666666667</v>
       </c>
       <c r="H35">
-        <v>31.137722</v>
+        <v>76.67354</v>
       </c>
       <c r="I35">
-        <v>0.1808704314749193</v>
+        <v>0.1479323416415651</v>
       </c>
       <c r="J35">
-        <v>0.1948801514233172</v>
+        <v>0.1548304933056855</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N35">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O35">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P35">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q35">
-        <v>200.681326074537</v>
+        <v>712.3064896561867</v>
       </c>
       <c r="R35">
-        <v>1204.087956447222</v>
+        <v>4273.83893793712</v>
       </c>
       <c r="S35">
-        <v>0.008938460184803437</v>
+        <v>0.01246557857289787</v>
       </c>
       <c r="T35">
-        <v>0.007199531863272572</v>
+        <v>0.01003666143814896</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>10.37924066666667</v>
+        <v>25.55784666666667</v>
       </c>
       <c r="H36">
-        <v>31.137722</v>
+        <v>76.67354</v>
       </c>
       <c r="I36">
-        <v>0.1808704314749193</v>
+        <v>0.1479323416415651</v>
       </c>
       <c r="J36">
-        <v>0.1948801514233172</v>
+        <v>0.1548304933056855</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N36">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O36">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P36">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q36">
-        <v>864.1408351284085</v>
+        <v>490.1071415280957</v>
       </c>
       <c r="R36">
-        <v>7777.267516155677</v>
+        <v>4410.964273752861</v>
       </c>
       <c r="S36">
-        <v>0.03848932334635457</v>
+        <v>0.008577022911592097</v>
       </c>
       <c r="T36">
-        <v>0.04650215542141071</v>
+        <v>0.01035868587336069</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>10.37924066666667</v>
+        <v>25.55784666666667</v>
       </c>
       <c r="H37">
-        <v>31.137722</v>
+        <v>76.67354</v>
       </c>
       <c r="I37">
-        <v>0.1808704314749193</v>
+        <v>0.1479323416415651</v>
       </c>
       <c r="J37">
-        <v>0.1948801514233172</v>
+        <v>0.1548304933056855</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N37">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O37">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P37">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q37">
-        <v>739.7536934889127</v>
+        <v>2441.692667135965</v>
       </c>
       <c r="R37">
-        <v>6657.783241400214</v>
+        <v>21975.23400422368</v>
       </c>
       <c r="S37">
-        <v>0.03294904944646423</v>
+        <v>0.04273035867993171</v>
       </c>
       <c r="T37">
-        <v>0.03980848934545754</v>
+        <v>0.0516065268081791</v>
       </c>
     </row>
   </sheetData>
